--- a/biology/Zoologie/Geoemyda_spengleri/Geoemyda_spengleri.xlsx
+++ b/biology/Zoologie/Geoemyda_spengleri/Geoemyda_spengleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue spenglérienne ou Géoémyde de Spengler (Geoemyda spengleri) est une espèce de tortues de la famille des Geoemydidae[1].
-C'est la plus petite des géoémydidés : la longueur de sa carapace  peut mesurer un peu plus de 10 cm[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tortue spenglérienne ou Géoémyde de Spengler (Geoemyda spengleri) est une espèce de tortues de la famille des Geoemydidae.
+C'est la plus petite des géoémydidés : la longueur de sa carapace  peut mesurer un peu plus de 10 cm.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de tortue terrestre, même s'il lui arrive parfois d'évoluer dans des eaux peu profondes, se rencontre en Chine dans les provinces du Hunan, du Guangdong, du Guangxi et de Hainan et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de tortue terrestre, même s'il lui arrive parfois d'évoluer dans des eaux peu profondes, se rencontre en Chine dans les provinces du Hunan, du Guangdong, du Guangxi et de Hainan et au Viêt Nam.
 Elle vit dans les forêts montagneuses et les fourrés de bambous.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tortue spenglérienne est active en milieu de journée au Vietnam, surtout quand le soleil sort après la pluie.
-En captivité, elle peut vivre jusqu'à 18 ans[3].
+En captivité, elle peut vivre jusqu'à 18 ans.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est omnivore : elle mange des fruits et des légumes, des insectes et des larves et est friande d'escargots.
 </t>
@@ -607,9 +625,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faut environ 70 jours pour que les œufs éclosent. Les petits mesurent entre 3,2 et 4,2 cm  et ils pèsent de 5 à 8 g[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut environ 70 jours pour que les œufs éclosent. Les petits mesurent entre 3,2 et 4,2 cm  et ils pèsent de 5 à 8 g.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lorenz Spengler (1720-1807)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lorenz Spengler (1720-1807).
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gmelin, 1789 : Caroli a Linné Systema naturae. 13. ed., Tom 1 Pars 3. G. E. Beer, Lipsiae, p. 1033-1516.</t>
         </is>
